--- a/doc/IPRouter.xlsx
+++ b/doc/IPRouter.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="38115" windowHeight="17445"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="38115" windowHeight="17445" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="ToDo" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>W5500</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>+3.3V</t>
+  </si>
+  <si>
+    <t>PID_MSG_TRANSMIT_TO_KNX</t>
+  </si>
+  <si>
+    <t>PID_MSG_TRANSMIT_TO_IP</t>
+  </si>
+  <si>
+    <t>check 03_08_03</t>
   </si>
 </sst>
 </file>
@@ -549,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
@@ -685,12 +694,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C5:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/doc/IPRouter.xlsx
+++ b/doc/IPRouter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="38115" windowHeight="17445" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="30600" windowHeight="13200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>W5500</t>
   </si>
@@ -67,6 +67,21 @@
   </si>
   <si>
     <t>check 03_08_03</t>
+  </si>
+  <si>
+    <t>IP / Ethernet-Info in Console</t>
+  </si>
+  <si>
+    <t>rework ip and routing log to console in stack</t>
+  </si>
+  <si>
+    <t>DNS IP statisch</t>
+  </si>
+  <si>
+    <t>Rst pin</t>
+  </si>
+  <si>
+    <t>interrupt pin</t>
   </si>
 </sst>
 </file>
@@ -694,27 +709,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:C10"/>
+  <dimension ref="C5:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/doc/IPRouter.xlsx
+++ b/doc/IPRouter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>W5500</t>
   </si>
@@ -82,6 +82,108 @@
   </si>
   <si>
     <t>interrupt pin</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 11F1 -&gt; 1B0A - APDU: 80  0 80</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 11F1 -&gt; 4B0A - APDU: 80  0 81</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 11F1 -&gt; 730A - APDU: 80  0 80</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 11F1 -&gt; 7B0A - APDU: 80  0 80</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 111E -&gt; F25B - APDU: 80  0 80 2E 83</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 11F1 -&gt; 830A - APDU: 80  0 80</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 11F1 -&gt; 930A - APDU: 80  0 80</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 11F1 -&gt; 9B0A - APDU: 80  0 80</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 110C -&gt; F164 - APDU: 80  0 80 3 84</t>
+  </si>
+  <si>
+    <t>input buffer overrun: 9</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 110C -&gt; F165 - APDU: 80  0 80 16 27</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 110C -&gt; F167 - APDU: 80  0 80 0 E5</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 11F1 -&gt; 2B0A - APDU: 80  0 80</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 11F1 -&gt; 330A - APDU: 80  0 80</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 11F1 -&gt; 3B0A - APDU: 80  0 80</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 11F1 -&gt; 430A - APDU: 80  0 80</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 1191 -&gt; 9300 - APDU: 80  0 80 C 5B</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 1191 -&gt; 9301 - APDU: 80  0 80 4 10</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 11C9 -&gt; E902 - APDU: 80  0 80 0 0 0 2</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 1197 -&gt; 6B00 - APDU: 80  0 80 6 D6</t>
+  </si>
+  <si>
+    <t>input buffer overrun: 10</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 1197 -&gt; 6B01 - APDU: 80  0 80 0 64</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 110C -&gt; F16A - APDU: 80  0 80 0 50</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 111E -&gt; F25A - APDU: 80  0 80 0 5 6F 41</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 1115 -&gt; CC06 - APDU: 80  0 81</t>
+  </si>
+  <si>
+    <t>input buffer overrun: 8</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 1115 -&gt; CC07 - APDU: 80  0 80</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 117D -&gt; 1B01 - APDU: 80  0 80 15 1E</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 1115 -&gt; CC08 - APDU: 80  0 80</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 1115 -&gt; CC0A - APDU: 80  0 80 FF</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 111E -&gt; F25B - APDU: 80  0 80 34 12</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 1193 -&gt; 9B00 - APDU: 80  0 80 C 47</t>
+  </si>
+  <si>
+    <t>Routing from S-&gt;P: 1193 -&gt; 9B01 - APDU: 80  0 80 E B8</t>
+  </si>
+  <si>
+    <t>buffer overrun when many pakets on TP</t>
   </si>
 </sst>
 </file>
@@ -709,10 +811,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:H18"/>
+  <dimension ref="C5:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,15 +846,184 @@
       <c r="C14" t="s">
         <v>19</v>
       </c>
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/doc/IPRouter.xlsx
+++ b/doc/IPRouter.xlsx
@@ -4,19 +4,212 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="30600" windowHeight="13200" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="30600" windowHeight="13200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="ToDo" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="knxprod - prop" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>dosp</author>
+  </authors>
+  <commentList>
+    <comment ref="M20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Repetition of broadcast telegrams</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Broadcast telegrams</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Repetition of individual addressed telegrams</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Individual addressed telegrams</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Acknowledge (ACK) of individual addressed telegrams
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Acknowledge (ACK) of group telegrams</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Broadcast telegrams</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Individual addressed telegrams</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Repetition of group telegrams</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Group telegrams (main groups 14 to 31)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Group telegrams (main groups 0 to 13)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Group telegrams (main groups 14 to 31)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Group telegrams (main groups 0 to 13)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>W5500</t>
   </si>
@@ -184,13 +377,67 @@
   </si>
   <si>
     <t>buffer overrun when many pakets on TP</t>
+  </si>
+  <si>
+    <t>ETS Bitoffset</t>
+  </si>
+  <si>
+    <t>Bit in Spec</t>
+  </si>
+  <si>
+    <t>0x17</t>
+  </si>
+  <si>
+    <t>0x63</t>
+  </si>
+  <si>
+    <t>0x0F</t>
+  </si>
+  <si>
+    <t>0x1F</t>
+  </si>
+  <si>
+    <t>0x77</t>
+  </si>
+  <si>
+    <t>1 1</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>Param in knxprod IP -&gt; KNX</t>
+  </si>
+  <si>
+    <t>Param in knxprod KNX -&gt; IP</t>
+  </si>
+  <si>
+    <t>0 0 0</t>
+  </si>
+  <si>
+    <t>PID_MAIN_LCCONFIG</t>
+  </si>
+  <si>
+    <t>PID_SUB_LCCONFIG</t>
+  </si>
+  <si>
+    <t>PID_MAIN_LCGRPCONFIG</t>
+  </si>
+  <si>
+    <t>PID_SUB_LCGRPCONFIG</t>
+  </si>
+  <si>
+    <t>Prop</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +453,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +508,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -328,6 +613,42 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -335,6 +656,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -379,6 +705,176 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10972800" y="2057400"/>
+          <a:ext cx="7019925" cy="10144125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18021300" y="1933575"/>
+          <a:ext cx="6981825" cy="5591175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>705971</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>50427</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>156322</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Grafik 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2229971" y="7138147"/>
+          <a:ext cx="8667750" cy="6162675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -813,7 +1309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -1032,13 +1528,455 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F13:R36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH60" sqref="AH60"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" customWidth="1"/>
+    <col min="10" max="17" width="4.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="13" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>1</v>
+      </c>
+      <c r="L13" s="11">
+        <v>2</v>
+      </c>
+      <c r="M13" s="11">
+        <v>3</v>
+      </c>
+      <c r="N13" s="11">
+        <v>4</v>
+      </c>
+      <c r="O13" s="11">
+        <v>5</v>
+      </c>
+      <c r="P13" s="11">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>7</v>
+      </c>
+      <c r="R13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+    </row>
+    <row r="15" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J15" s="11">
+        <v>7</v>
+      </c>
+      <c r="K15" s="11">
+        <v>6</v>
+      </c>
+      <c r="L15" s="11">
+        <v>5</v>
+      </c>
+      <c r="M15" s="11">
+        <v>4</v>
+      </c>
+      <c r="N15" s="11">
+        <v>3</v>
+      </c>
+      <c r="O15" s="11">
+        <v>2</v>
+      </c>
+      <c r="P15" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+    </row>
+    <row r="17" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+    </row>
+    <row r="18" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+    </row>
+    <row r="19" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19">
+        <v>52</v>
+      </c>
+      <c r="I19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="11">
+        <v>1</v>
+      </c>
+      <c r="M19" s="11">
+        <v>1</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+      <c r="O19" s="11">
+        <v>1</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q19" s="12"/>
+    </row>
+    <row r="20" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="21">
+        <v>8</v>
+      </c>
+      <c r="N20" s="21">
+        <v>9</v>
+      </c>
+      <c r="O20" s="21">
+        <v>10</v>
+      </c>
+      <c r="P20" s="17">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="17"/>
+      <c r="R20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+    </row>
+    <row r="24" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24">
+        <v>53</v>
+      </c>
+      <c r="I24" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24" s="12"/>
+      <c r="L24" s="11">
+        <v>1</v>
+      </c>
+      <c r="M24" s="11">
+        <v>1</v>
+      </c>
+      <c r="N24" s="11">
+        <v>0</v>
+      </c>
+      <c r="O24" s="11">
+        <v>1</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q24" s="12"/>
+    </row>
+    <row r="25" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" s="20">
+        <v>2</v>
+      </c>
+      <c r="K25" s="20"/>
+      <c r="L25" s="19">
+        <v>3</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c r="N25" s="19">
+        <v>4</v>
+      </c>
+      <c r="O25" s="10"/>
+      <c r="P25" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="16"/>
+      <c r="R25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+    </row>
+    <row r="28" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29">
+        <v>54</v>
+      </c>
+      <c r="I29" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="11">
+        <v>1</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q29" s="12"/>
+    </row>
+    <row r="30" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="18">
+        <v>12</v>
+      </c>
+      <c r="N30" s="17">
+        <v>13</v>
+      </c>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17">
+        <v>14</v>
+      </c>
+      <c r="Q30" s="17"/>
+      <c r="R30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35">
+        <v>55</v>
+      </c>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="11">
+        <v>1</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q35" s="12"/>
+    </row>
+    <row r="36" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="16">
+        <v>6</v>
+      </c>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q36" s="16"/>
+      <c r="R36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="P25:Q25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/doc/IPRouter.xlsx
+++ b/doc/IPRouter.xlsx
@@ -536,7 +536,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -581,11 +581,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -648,6 +710,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -724,8 +813,8 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -780,7 +869,7 @@
       <xdr:col>37</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1531,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F13:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH60" sqref="AH60"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ53" sqref="AJ53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,7 +1896,7 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
@@ -1835,16 +1924,16 @@
       <c r="M29" s="11">
         <v>1</v>
       </c>
-      <c r="N29" s="12" t="s">
+      <c r="N29" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12" t="s">
+      <c r="O29" s="23"/>
+      <c r="P29" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="Q29" s="12"/>
-    </row>
-    <row r="30" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="Q29" s="24"/>
+    </row>
+    <row r="30" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
         <v>61</v>
       </c>
@@ -1854,14 +1943,14 @@
       <c r="M30" s="18">
         <v>12</v>
       </c>
-      <c r="N30" s="17">
+      <c r="N30" s="25">
         <v>13</v>
       </c>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17">
+      <c r="O30" s="26"/>
+      <c r="P30" s="26">
         <v>14</v>
       </c>
-      <c r="Q30" s="17"/>
+      <c r="Q30" s="27"/>
       <c r="R30" t="s">
         <v>65</v>
       </c>
@@ -1896,7 +1985,7 @@
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
     </row>
-    <row r="34" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
@@ -1924,16 +2013,16 @@
       <c r="M35" s="11">
         <v>1</v>
       </c>
-      <c r="N35" s="12" t="s">
+      <c r="N35" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12" t="s">
+      <c r="O35" s="23"/>
+      <c r="P35" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="Q35" s="12"/>
-    </row>
-    <row r="36" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="Q35" s="24"/>
+    </row>
+    <row r="36" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
         <v>60</v>
       </c>
@@ -1941,14 +2030,14 @@
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="16">
+      <c r="N36" s="28">
         <v>6</v>
       </c>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16">
+      <c r="O36" s="29"/>
+      <c r="P36" s="29">
         <v>7</v>
       </c>
-      <c r="Q36" s="16"/>
+      <c r="Q36" s="30"/>
       <c r="R36" t="s">
         <v>66</v>
       </c>

--- a/doc/IPRouter.xlsx
+++ b/doc/IPRouter.xlsx
@@ -536,7 +536,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -643,11 +643,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -694,24 +714,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -737,6 +739,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -814,7 +837,7 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -869,7 +892,7 @@
       <xdr:col>37</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1620,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F13:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ53" sqref="AJ53"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1753,13 +1776,13 @@
       <c r="L19" s="11">
         <v>1</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="25">
         <v>1</v>
       </c>
       <c r="N19" s="11">
         <v>0</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="25">
         <v>1</v>
       </c>
       <c r="P19" s="13" t="s">
@@ -1767,31 +1790,31 @@
       </c>
       <c r="Q19" s="12"/>
     </row>
-    <row r="20" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I20" t="s">
         <v>58</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="21">
+      <c r="M20" s="26">
         <v>8</v>
       </c>
-      <c r="N20" s="21">
+      <c r="N20" s="26">
         <v>9</v>
       </c>
-      <c r="O20" s="21">
+      <c r="O20" s="26">
         <v>10</v>
       </c>
-      <c r="P20" s="17">
+      <c r="P20" s="27">
         <v>11</v>
       </c>
-      <c r="Q20" s="17"/>
+      <c r="Q20" s="27"/>
       <c r="R20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -1852,31 +1875,31 @@
       </c>
       <c r="Q24" s="12"/>
     </row>
-    <row r="25" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
         <v>59</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="30">
         <v>2</v>
       </c>
-      <c r="K25" s="20"/>
-      <c r="L25" s="19">
+      <c r="K25" s="30"/>
+      <c r="L25" s="31">
         <v>3</v>
       </c>
       <c r="M25" s="10"/>
-      <c r="N25" s="19">
+      <c r="N25" s="31">
         <v>4</v>
       </c>
       <c r="O25" s="10"/>
-      <c r="P25" s="16">
+      <c r="P25" s="28">
         <v>5</v>
       </c>
-      <c r="Q25" s="16"/>
+      <c r="Q25" s="28"/>
       <c r="R25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -1924,14 +1947,14 @@
       <c r="M29" s="11">
         <v>1</v>
       </c>
-      <c r="N29" s="22" t="s">
+      <c r="N29" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23" t="s">
+      <c r="O29" s="17"/>
+      <c r="P29" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="Q29" s="24"/>
+      <c r="Q29" s="18"/>
     </row>
     <row r="30" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
@@ -1940,22 +1963,22 @@
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
-      <c r="M30" s="18">
+      <c r="M30" s="29">
         <v>12</v>
       </c>
-      <c r="N30" s="25">
+      <c r="N30" s="19">
         <v>13</v>
       </c>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26">
+      <c r="O30" s="20"/>
+      <c r="P30" s="20">
         <v>14</v>
       </c>
-      <c r="Q30" s="27"/>
+      <c r="Q30" s="21"/>
       <c r="R30" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
@@ -2013,14 +2036,14 @@
       <c r="M35" s="11">
         <v>1</v>
       </c>
-      <c r="N35" s="22" t="s">
+      <c r="N35" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23" t="s">
+      <c r="O35" s="17"/>
+      <c r="P35" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="Q35" s="24"/>
+      <c r="Q35" s="18"/>
     </row>
     <row r="36" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
@@ -2030,14 +2053,14 @@
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="28">
+      <c r="N36" s="22">
         <v>6</v>
       </c>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29">
+      <c r="O36" s="23"/>
+      <c r="P36" s="23">
         <v>7</v>
       </c>
-      <c r="Q36" s="30"/>
+      <c r="Q36" s="24"/>
       <c r="R36" t="s">
         <v>66</v>
       </c>

--- a/doc/IPRouter.xlsx
+++ b/doc/IPRouter.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="30600" windowHeight="13200" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="30600" windowHeight="13200" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="ToDo" sheetId="2" r:id="rId2"/>
     <sheet name="knxprod - prop" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -209,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="98">
   <si>
     <t>W5500</t>
   </si>
@@ -431,13 +432,201 @@
   </si>
   <si>
     <t>default</t>
+  </si>
+  <si>
+    <t>sendDataRequest</t>
+  </si>
+  <si>
+    <t>sendMsgHopCount</t>
+  </si>
+  <si>
+    <t>routeDataIndividual</t>
+  </si>
+  <si>
+    <t>dataGroupRequest</t>
+  </si>
+  <si>
+    <t>dataBroadcastRequest</t>
+  </si>
+  <si>
+    <t>dataSystemBroadcastRequest</t>
+  </si>
+  <si>
+    <t>dataIndication</t>
+  </si>
+  <si>
+    <t>broadcastIndication</t>
+  </si>
+  <si>
+    <t>systemBroadcastIndication</t>
+  </si>
+  <si>
+    <t>dataIndividualRequest</t>
+  </si>
+  <si>
+    <t>NetworkLayerEntity::dataIndication</t>
+  </si>
+  <si>
+    <t>NetworkLayerEntity::broadcastIndication</t>
+  </si>
+  <si>
+    <t>NetworkLayerEntity::systemBroadcastIndication</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>Empf:</t>
+  </si>
+  <si>
+    <t>LL =&gt; NL =&gt; TL = &gt; AL</t>
+  </si>
+  <si>
+    <t>Send:</t>
+  </si>
+  <si>
+    <t>AL =&gt; TL =&gt; NL =&gt; LL</t>
+  </si>
+  <si>
+    <r>
+      <t>TransportLayer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataBroadcastRequest</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TransportLayer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataSystemBroadcastRequest</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TransportLayer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dataGroupRequest</t>
+    </r>
+  </si>
+  <si>
+    <t>TransportLayer (state machine)</t>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>NetworkLayerCoupler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>NetworkLayer</t>
+    </r>
+  </si>
+  <si>
+    <t>Sending a frame</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,6 +655,47 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="12">
@@ -667,7 +897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -702,65 +932,78 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1643,7 +1886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F13:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -1769,26 +2012,26 @@
       <c r="I19" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="K19" s="12"/>
+      <c r="K19" s="29"/>
       <c r="L19" s="11">
         <v>1</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="12">
         <v>1</v>
       </c>
       <c r="N19" s="11">
         <v>0</v>
       </c>
-      <c r="O19" s="25">
+      <c r="O19" s="12">
         <v>1</v>
       </c>
-      <c r="P19" s="13" t="s">
+      <c r="P19" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="Q19" s="12"/>
+      <c r="Q19" s="29"/>
     </row>
     <row r="20" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I20" t="s">
@@ -1797,13 +2040,13 @@
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="26">
+      <c r="M20" s="13">
         <v>8</v>
       </c>
-      <c r="N20" s="26">
+      <c r="N20" s="13">
         <v>9</v>
       </c>
-      <c r="O20" s="26">
+      <c r="O20" s="13">
         <v>10</v>
       </c>
       <c r="P20" s="27">
@@ -1854,10 +2097,10 @@
       <c r="I24" t="s">
         <v>62</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="K24" s="12"/>
+      <c r="K24" s="29"/>
       <c r="L24" s="11">
         <v>1</v>
       </c>
@@ -1870,10 +2113,10 @@
       <c r="O24" s="11">
         <v>1</v>
       </c>
-      <c r="P24" s="13" t="s">
+      <c r="P24" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="Q24" s="12"/>
+      <c r="Q24" s="29"/>
     </row>
     <row r="25" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
@@ -1883,18 +2126,18 @@
         <v>2</v>
       </c>
       <c r="K25" s="30"/>
-      <c r="L25" s="31">
+      <c r="L25" s="15">
         <v>3</v>
       </c>
       <c r="M25" s="10"/>
-      <c r="N25" s="31">
+      <c r="N25" s="15">
         <v>4</v>
       </c>
       <c r="O25" s="10"/>
-      <c r="P25" s="28">
+      <c r="P25" s="31">
         <v>5</v>
       </c>
-      <c r="Q25" s="28"/>
+      <c r="Q25" s="31"/>
       <c r="R25" t="s">
         <v>66</v>
       </c>
@@ -1939,22 +2182,22 @@
       <c r="I29" t="s">
         <v>58</v>
       </c>
-      <c r="J29" s="15" t="s">
+      <c r="J29" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
       <c r="M29" s="11">
         <v>1</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17" t="s">
+      <c r="O29" s="20"/>
+      <c r="P29" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="Q29" s="18"/>
+      <c r="Q29" s="21"/>
     </row>
     <row r="30" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
@@ -1963,17 +2206,17 @@
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
-      <c r="M30" s="29">
+      <c r="M30" s="14">
         <v>12</v>
       </c>
-      <c r="N30" s="19">
+      <c r="N30" s="26">
         <v>13</v>
       </c>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20">
+      <c r="O30" s="24"/>
+      <c r="P30" s="24">
         <v>14</v>
       </c>
-      <c r="Q30" s="21"/>
+      <c r="Q30" s="25"/>
       <c r="R30" t="s">
         <v>65</v>
       </c>
@@ -2028,45 +2271,52 @@
       <c r="I35" t="s">
         <v>58</v>
       </c>
-      <c r="J35" s="15" t="s">
+      <c r="J35" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
       <c r="M35" s="11">
         <v>1</v>
       </c>
-      <c r="N35" s="16" t="s">
+      <c r="N35" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17" t="s">
+      <c r="O35" s="20"/>
+      <c r="P35" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="Q35" s="18"/>
+      <c r="Q35" s="21"/>
     </row>
     <row r="36" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
         <v>60</v>
       </c>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="22">
+      <c r="N36" s="16">
         <v>6</v>
       </c>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23">
+      <c r="O36" s="17"/>
+      <c r="P36" s="17">
         <v>7</v>
       </c>
-      <c r="Q36" s="24"/>
+      <c r="Q36" s="18"/>
       <c r="R36" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="J24:K24"/>
     <mergeCell ref="N36:O36"/>
     <mergeCell ref="P36:Q36"/>
     <mergeCell ref="J36:L36"/>
@@ -2078,17 +2328,231 @@
     <mergeCell ref="J35:L35"/>
     <mergeCell ref="N35:O35"/>
     <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="P25:Q25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:P24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="53.42578125" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H5" s="33"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H8" s="33"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H10" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H12" s="33"/>
+      <c r="J12" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="33"/>
+      <c r="L12" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H13" s="33"/>
+      <c r="I13" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H16" s="33"/>
+    </row>
+    <row r="17" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H17" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="33"/>
+      <c r="L17" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H18" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="33"/>
+      <c r="L18" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H19" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" s="33"/>
+      <c r="L19" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="L20" s="32"/>
+      <c r="M20" s="33"/>
+      <c r="P20" s="32"/>
+    </row>
+    <row r="21" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="L21" s="32"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="P21" s="32"/>
+    </row>
+    <row r="22" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="L22" s="34"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="L23" s="34"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="24" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="L24" s="34"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="P24" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/IPRouter.xlsx
+++ b/doc/IPRouter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="30600" windowHeight="13200" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="30600" windowHeight="13200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="103">
   <si>
     <t>W5500</t>
   </si>
@@ -620,6 +620,21 @@
   </si>
   <si>
     <t>Sending a frame</t>
+  </si>
+  <si>
+    <t>Empfang</t>
+  </si>
+  <si>
+    <t>Senden</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>Routing</t>
+  </si>
+  <si>
+    <t>LL =&gt; NL =&gt; LL</t>
   </si>
 </sst>
 </file>
@@ -766,7 +781,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -893,11 +908,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -941,57 +971,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1004,6 +983,69 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1080,7 +1122,7 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1135,7 +1177,7 @@
       <xdr:col>37</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1886,8 +1928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F13:R36"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2002,7 +2044,7 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
     </row>
-    <row r="19" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
         <v>68</v>
       </c>
@@ -2012,10 +2054,10 @@
       <c r="I19" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="28" t="s">
+      <c r="J19" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="K19" s="29"/>
+      <c r="K19" s="21"/>
       <c r="L19" s="11">
         <v>1</v>
       </c>
@@ -2028,10 +2070,10 @@
       <c r="O19" s="12">
         <v>1</v>
       </c>
-      <c r="P19" s="28" t="s">
+      <c r="P19" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="Q19" s="29"/>
+      <c r="Q19" s="21"/>
     </row>
     <row r="20" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I20" t="s">
@@ -2043,16 +2085,16 @@
       <c r="M20" s="13">
         <v>8</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="37">
         <v>9</v>
       </c>
       <c r="O20" s="13">
         <v>10</v>
       </c>
-      <c r="P20" s="27">
+      <c r="P20" s="35">
         <v>11</v>
       </c>
-      <c r="Q20" s="27"/>
+      <c r="Q20" s="36"/>
       <c r="R20" t="s">
         <v>65</v>
       </c>
@@ -2087,7 +2129,7 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
     </row>
-    <row r="24" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
         <v>69</v>
       </c>
@@ -2097,10 +2139,10 @@
       <c r="I24" t="s">
         <v>62</v>
       </c>
-      <c r="J24" s="28" t="s">
+      <c r="J24" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="K24" s="29"/>
+      <c r="K24" s="21"/>
       <c r="L24" s="11">
         <v>1</v>
       </c>
@@ -2113,36 +2155,36 @@
       <c r="O24" s="11">
         <v>1</v>
       </c>
-      <c r="P24" s="28" t="s">
+      <c r="P24" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="Q24" s="29"/>
+      <c r="Q24" s="21"/>
     </row>
     <row r="25" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
         <v>59</v>
       </c>
-      <c r="J25" s="30">
+      <c r="J25" s="39">
         <v>2</v>
       </c>
-      <c r="K25" s="30"/>
-      <c r="L25" s="15">
+      <c r="K25" s="40"/>
+      <c r="L25" s="38">
         <v>3</v>
       </c>
       <c r="M25" s="10"/>
-      <c r="N25" s="15">
+      <c r="N25" s="38">
         <v>4</v>
       </c>
       <c r="O25" s="10"/>
-      <c r="P25" s="31">
+      <c r="P25" s="33">
         <v>5</v>
       </c>
-      <c r="Q25" s="31"/>
+      <c r="Q25" s="34"/>
       <c r="R25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="6:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -2182,22 +2224,22 @@
       <c r="I29" t="s">
         <v>58</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
       <c r="M29" s="11">
         <v>1</v>
       </c>
-      <c r="N29" s="22" t="s">
+      <c r="N29" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20" t="s">
+      <c r="O29" s="26"/>
+      <c r="P29" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="Q29" s="21"/>
+      <c r="Q29" s="27"/>
     </row>
     <row r="30" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
@@ -2209,14 +2251,14 @@
       <c r="M30" s="14">
         <v>12</v>
       </c>
-      <c r="N30" s="26">
+      <c r="N30" s="32">
         <v>13</v>
       </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24">
+      <c r="O30" s="30"/>
+      <c r="P30" s="30">
         <v>14</v>
       </c>
-      <c r="Q30" s="25"/>
+      <c r="Q30" s="31"/>
       <c r="R30" t="s">
         <v>65</v>
       </c>
@@ -2271,52 +2313,45 @@
       <c r="I35" t="s">
         <v>58</v>
       </c>
-      <c r="J35" s="23" t="s">
+      <c r="J35" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
       <c r="M35" s="11">
         <v>1</v>
       </c>
-      <c r="N35" s="22" t="s">
+      <c r="N35" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20" t="s">
+      <c r="O35" s="26"/>
+      <c r="P35" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="Q35" s="21"/>
+      <c r="Q35" s="27"/>
     </row>
     <row r="36" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
         <v>60</v>
       </c>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="16">
+      <c r="N36" s="22">
         <v>6</v>
       </c>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17">
+      <c r="O36" s="23"/>
+      <c r="P36" s="23">
         <v>7</v>
       </c>
-      <c r="Q36" s="18"/>
+      <c r="Q36" s="24"/>
       <c r="R36" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="J24:K24"/>
     <mergeCell ref="N36:O36"/>
     <mergeCell ref="P36:Q36"/>
     <mergeCell ref="J36:L36"/>
@@ -2328,6 +2363,13 @@
     <mergeCell ref="J35:L35"/>
     <mergeCell ref="N35:O35"/>
     <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="J24:K24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2340,8 +2382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2359,7 +2401,7 @@
       <c r="C3" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="19" t="s">
         <v>96</v>
       </c>
       <c r="J3" t="s">
@@ -2373,183 +2415,213 @@
       <c r="C4" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="33"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H5" s="33"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H6" s="33"/>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H7" s="33"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H8" s="33"/>
+      <c r="H8" s="16"/>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H9" s="35"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H10" s="35" t="s">
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="K10" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="L10" s="32" t="s">
+      <c r="L10" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
       <c r="G11" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="L11" s="32" t="s">
+      <c r="L11" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H12" s="33"/>
-      <c r="J12" s="32" t="s">
+      <c r="H12" s="16"/>
+      <c r="J12" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="32" t="s">
+      <c r="K12" s="16"/>
+      <c r="L12" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H13" s="33"/>
-      <c r="I13" s="32" t="s">
+      <c r="H13" s="16"/>
+      <c r="I13" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>98</v>
+      </c>
       <c r="G14" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="L14" s="32" t="s">
+      <c r="L14" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>98</v>
+      </c>
       <c r="G15" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="32" t="s">
+      <c r="K15" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="L15" s="32" t="s">
+      <c r="L15" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H16" s="33"/>
-    </row>
-    <row r="17" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H17" s="35" t="s">
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J17" s="34" t="s">
+      <c r="J17" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="33"/>
-      <c r="L17" s="32" t="s">
+      <c r="K17" s="16"/>
+      <c r="L17" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H18" s="35" t="s">
+    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="34" t="s">
+      <c r="J18" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="K18" s="33"/>
-      <c r="L18" s="32" t="s">
+      <c r="K18" s="16"/>
+      <c r="L18" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H19" s="35" t="s">
+    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="J19" s="34" t="s">
+      <c r="J19" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="K19" s="33"/>
-      <c r="L19" s="32" t="s">
+      <c r="K19" s="16"/>
+      <c r="L19" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="L20" s="32"/>
-      <c r="M20" s="33"/>
-      <c r="P20" s="32"/>
-    </row>
-    <row r="21" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="L21" s="32"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="P21" s="32"/>
-    </row>
-    <row r="22" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="L22" s="34"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="P22" s="32"/>
-    </row>
-    <row r="23" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="L23" s="34"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="P23" s="32"/>
-    </row>
-    <row r="24" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="L24" s="34"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="P24" s="32"/>
+    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="L20" s="15"/>
+      <c r="M20" s="16"/>
+      <c r="P20" s="15"/>
+    </row>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="L21" s="15"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="P21" s="15"/>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="L22" s="17"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="P22" s="15"/>
+    </row>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="L23" s="17"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="P23" s="15"/>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="L24" s="17"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="P24" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/doc/IPRouter.xlsx
+++ b/doc/IPRouter.xlsx
@@ -781,7 +781,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -889,26 +889,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -927,7 +907,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -965,12 +945,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -984,67 +958,70 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1122,7 +1099,7 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1177,7 +1154,7 @@
       <xdr:col>37</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1928,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F13:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2054,10 +2031,10 @@
       <c r="I19" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="20" t="s">
+      <c r="J19" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="K19" s="21"/>
+      <c r="K19" s="38"/>
       <c r="L19" s="11">
         <v>1</v>
       </c>
@@ -2070,10 +2047,10 @@
       <c r="O19" s="12">
         <v>1</v>
       </c>
-      <c r="P19" s="20" t="s">
+      <c r="P19" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="Q19" s="21"/>
+      <c r="Q19" s="38"/>
     </row>
     <row r="20" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I20" t="s">
@@ -2082,13 +2059,13 @@
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="13">
+      <c r="M20" s="18">
         <v>8</v>
       </c>
-      <c r="N20" s="37">
+      <c r="N20" s="18">
         <v>9</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="18">
         <v>10</v>
       </c>
       <c r="P20" s="35">
@@ -2099,7 +2076,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="6:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -2139,10 +2116,10 @@
       <c r="I24" t="s">
         <v>62</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="J24" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="K24" s="21"/>
+      <c r="K24" s="38"/>
       <c r="L24" s="11">
         <v>1</v>
       </c>
@@ -2155,24 +2132,24 @@
       <c r="O24" s="11">
         <v>1</v>
       </c>
-      <c r="P24" s="20" t="s">
+      <c r="P24" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="Q24" s="21"/>
+      <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
         <v>59</v>
       </c>
-      <c r="J25" s="39">
+      <c r="J25" s="31">
         <v>2</v>
       </c>
-      <c r="K25" s="40"/>
-      <c r="L25" s="38">
+      <c r="K25" s="32"/>
+      <c r="L25" s="19">
         <v>3</v>
       </c>
       <c r="M25" s="10"/>
-      <c r="N25" s="38">
+      <c r="N25" s="19">
         <v>4</v>
       </c>
       <c r="O25" s="10"/>
@@ -2214,7 +2191,7 @@
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
     </row>
-    <row r="29" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F29" t="s">
         <v>70</v>
       </c>
@@ -2224,22 +2201,22 @@
       <c r="I29" t="s">
         <v>58</v>
       </c>
-      <c r="J29" s="29" t="s">
+      <c r="J29" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
       <c r="M29" s="11">
         <v>1</v>
       </c>
-      <c r="N29" s="28" t="s">
+      <c r="N29" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26" t="s">
+      <c r="O29" s="24"/>
+      <c r="P29" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="Q29" s="27"/>
+      <c r="Q29" s="25"/>
     </row>
     <row r="30" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
@@ -2248,22 +2225,22 @@
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
-      <c r="M30" s="14">
+      <c r="M30" s="39">
         <v>12</v>
       </c>
-      <c r="N30" s="32">
+      <c r="N30" s="30">
         <v>13</v>
       </c>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30">
+      <c r="O30" s="28"/>
+      <c r="P30" s="28">
         <v>14</v>
       </c>
-      <c r="Q30" s="31"/>
+      <c r="Q30" s="29"/>
       <c r="R30" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="6:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
@@ -2313,45 +2290,52 @@
       <c r="I35" t="s">
         <v>58</v>
       </c>
-      <c r="J35" s="29" t="s">
+      <c r="J35" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
       <c r="M35" s="11">
         <v>1</v>
       </c>
-      <c r="N35" s="28" t="s">
+      <c r="N35" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26" t="s">
+      <c r="O35" s="24"/>
+      <c r="P35" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="Q35" s="27"/>
+      <c r="Q35" s="25"/>
     </row>
     <row r="36" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I36" t="s">
         <v>60</v>
       </c>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="22">
+      <c r="N36" s="20">
         <v>6</v>
       </c>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23">
+      <c r="O36" s="21"/>
+      <c r="P36" s="21">
         <v>7</v>
       </c>
-      <c r="Q36" s="24"/>
+      <c r="Q36" s="22"/>
       <c r="R36" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="J24:K24"/>
     <mergeCell ref="N36:O36"/>
     <mergeCell ref="P36:Q36"/>
     <mergeCell ref="J36:L36"/>
@@ -2363,13 +2347,6 @@
     <mergeCell ref="J35:L35"/>
     <mergeCell ref="N35:O35"/>
     <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="J24:K24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2383,7 +2360,7 @@
   <dimension ref="B3:P24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11:J12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2401,7 +2378,7 @@
       <c r="C3" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="17" t="s">
         <v>96</v>
       </c>
       <c r="J3" t="s">
@@ -2415,10 +2392,10 @@
       <c r="C4" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H5" s="16"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -2427,37 +2404,37 @@
       <c r="C6" t="s">
         <v>102</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H7" s="16"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H8" s="16"/>
+      <c r="H8" s="14"/>
       <c r="L8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H9" s="18"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>99</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2468,41 +2445,41 @@
       <c r="G11" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H12" s="16"/>
-      <c r="J12" s="15" t="s">
+      <c r="H12" s="14"/>
+      <c r="J12" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="15" t="s">
+      <c r="K12" s="14"/>
+      <c r="L12" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H13" s="16"/>
-      <c r="I13" s="15" t="s">
+      <c r="H13" s="14"/>
+      <c r="I13" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2513,16 +2490,16 @@
       <c r="G14" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2533,34 +2510,34 @@
       <c r="G15" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H16" s="16"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="15" t="s">
+      <c r="K17" s="14"/>
+      <c r="L17" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2568,14 +2545,14 @@
       <c r="D18" t="s">
         <v>99</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="15" t="s">
+      <c r="K18" s="14"/>
+      <c r="L18" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2583,45 +2560,45 @@
       <c r="D19" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="15" t="s">
+      <c r="K19" s="14"/>
+      <c r="L19" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="L20" s="15"/>
-      <c r="M20" s="16"/>
-      <c r="P20" s="15"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="14"/>
+      <c r="P20" s="13"/>
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="L21" s="15"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="P21" s="15"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="P21" s="13"/>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="L22" s="17"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="P22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="P22" s="13"/>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="L23" s="17"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="P23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="P23" s="13"/>
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="L24" s="17"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="P24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="P24" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
